--- a/konu_dağılımı.xlsx
+++ b/konu_dağılımı.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasong\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2559FA-7707-4A56-99A8-F32DF2A67185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="72" windowWidth="21000" windowHeight="10080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>1 Makine öğrenmesine giriş</t>
   </si>
@@ -75,9 +81,6 @@
     <t>İkinci Öğretim</t>
   </si>
   <si>
-    <t>Mustafa Görez, Mustafa Ercan</t>
-  </si>
-  <si>
     <t>Emir Sönmez, Abdullah Kaya</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
     <t>Serkan Cankaloğlu, Salih Cançetin</t>
   </si>
   <si>
-    <t>Enes Öz, Bilal Özgan, Ömer Ocak</t>
-  </si>
-  <si>
     <t>Fatma Duru, Hilal Duru</t>
   </si>
   <si>
@@ -124,13 +124,25 @@
   </si>
   <si>
     <t>Merve Nur Ateş</t>
+  </si>
+  <si>
+    <t>Ömer Ocak</t>
+  </si>
+  <si>
+    <t>Enes Öz, Bilal Özgan</t>
+  </si>
+  <si>
+    <t>Murat Arslan</t>
+  </si>
+  <si>
+    <t>Mustafa Görez, Mustafa Ercan (25 puan)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +266,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,9 +318,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +352,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +404,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
@@ -557,7 +613,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
@@ -567,7 +623,7 @@
       </c>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -582,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +647,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,72 +656,72 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -674,75 +730,79 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -762,24 +822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/konu_dağılımı.xlsx
+++ b/konu_dağılımı.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2559FA-7707-4A56-99A8-F32DF2A67185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BFDF52-9A56-450E-931F-AEB4FA5314DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>1 Makine öğrenmesine giriş</t>
   </si>
@@ -123,19 +123,67 @@
     <t>Safa Uzunali, Muhammed Enes Ceylan</t>
   </si>
   <si>
-    <t>Merve Nur Ateş</t>
-  </si>
-  <si>
     <t>Ömer Ocak</t>
   </si>
   <si>
     <t>Enes Öz, Bilal Özgan</t>
   </si>
   <si>
-    <t>Murat Arslan</t>
-  </si>
-  <si>
     <t>Mustafa Görez, Mustafa Ercan (25 puan)</t>
+  </si>
+  <si>
+    <t>Murat Arslan, Abdullah Yıldırım</t>
+  </si>
+  <si>
+    <t>Ramazan Dursun</t>
+  </si>
+  <si>
+    <t>Beyza Demir</t>
+  </si>
+  <si>
+    <t>Ali Yıldız</t>
+  </si>
+  <si>
+    <t>Şule Nur Altun</t>
+  </si>
+  <si>
+    <t>Furkan Emin Güven</t>
+  </si>
+  <si>
+    <t>Arif Çelikkıran</t>
+  </si>
+  <si>
+    <t>Merve Nur Ateş(N.Ö.)</t>
+  </si>
+  <si>
+    <t>Ali Gökhan Çifter, Hamza Tayyip Şeker</t>
+  </si>
+  <si>
+    <t>Ömer Faruk Kıranşal, Enes Demir</t>
+  </si>
+  <si>
+    <t>Taner İğdirli, Yakup Çil</t>
+  </si>
+  <si>
+    <t>Mehmet Onur Arslan, Büşra Polat</t>
+  </si>
+  <si>
+    <t>Ceyhun Kayır, Selman Akaslan</t>
+  </si>
+  <si>
+    <t>Soner Ateş, Yunus Emre Aras</t>
+  </si>
+  <si>
+    <t>Ömer Eşbah</t>
+  </si>
+  <si>
+    <t>Umut Eroğlu, Muhammet Ali Kayran</t>
+  </si>
+  <si>
+    <t>Özlem Donat, Ayşegül Çelik</t>
+  </si>
+  <si>
+    <t>Sertaç Gülcan, Yahya Yıldız</t>
   </si>
 </sst>
 </file>
@@ -601,7 +649,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,13 +709,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -676,11 +728,15 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -693,7 +749,9 @@
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -702,11 +760,15 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -715,11 +777,15 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -737,11 +803,15 @@
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -750,11 +820,15 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -764,9 +838,11 @@
         <v>25</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,11 +850,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -796,10 +874,12 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/konu_dağılımı.xlsx
+++ b/konu_dağılımı.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BFDF52-9A56-450E-931F-AEB4FA5314DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05914B82-3810-4975-B6CB-53F7097C9871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>1 Makine öğrenmesine giriş</t>
   </si>
@@ -81,9 +81,6 @@
     <t>İkinci Öğretim</t>
   </si>
   <si>
-    <t>Emir Sönmez, Abdullah Kaya</t>
-  </si>
-  <si>
     <t>Ayşenur Aydın, Nurselin Güleç, Zeliha İrem İlem</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Serkan Cankaloğlu, Salih Cançetin</t>
   </si>
   <si>
-    <t>Fatma Duru, Hilal Duru</t>
-  </si>
-  <si>
     <t>Yavuz Han Mıstık, Berkant Kurmuş</t>
   </si>
   <si>
@@ -180,10 +174,22 @@
     <t>Umut Eroğlu, Muhammet Ali Kayran</t>
   </si>
   <si>
-    <t>Özlem Donat, Ayşegül Çelik</t>
-  </si>
-  <si>
     <t>Sertaç Gülcan, Yahya Yıldız</t>
+  </si>
+  <si>
+    <t>Fatma Duru, Hilal Duru (25 puan)</t>
+  </si>
+  <si>
+    <t>Fatma Duru</t>
+  </si>
+  <si>
+    <t>Özlem Donat</t>
+  </si>
+  <si>
+    <t>Ayşegül Çelik</t>
+  </si>
+  <si>
+    <t>Emir Sönmez, Abdullah Kaya(25 puan)</t>
   </si>
 </sst>
 </file>
@@ -648,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,16 +715,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -726,16 +732,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -743,14 +749,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -758,16 +764,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -775,16 +781,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -801,16 +807,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -835,14 +841,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,12 +856,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,10 +871,12 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,13 +884,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
